--- a/shinyapp/data/school_survey.xlsx
+++ b/shinyapp/data/school_survey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDC9DD6C-B146-5948-AA8D-C8B65C4EE8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD95B4C-19F1-614E-A97D-45CC5CB81CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23240" windowHeight="12560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Variables</t>
   </si>
@@ -145,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +202,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -344,9 +351,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,11 +671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -678,6 +687,7 @@
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -702,60 +712,207 @@
       <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16" t="s">
-        <v>1</v>
+      <c r="A2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.77</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.87</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0.96</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="16" t="s">
-        <v>2</v>
+      <c r="A3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0.87</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.59</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0.78</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16">
-      <c r="A11" s="19"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="16">
+      <c r="A4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.63</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.76</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16">
+      <c r="A5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.62</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.77</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16">
+      <c r="A6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16">
+      <c r="A7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.69</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16">
+      <c r="A8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="16">
+      <c r="A9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="16">
+      <c r="A10" s="19"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="17"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="17"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -763,238 +920,38 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="13">
-        <v>0.91</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0.92</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.77</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0.87</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0.96</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0.88</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0.96</v>
-      </c>
+      <c r="A13" s="17"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="13">
-        <v>0.87</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0.81</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.59</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0.81</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0.91</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0.94</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0.78</v>
-      </c>
+      <c r="A14" s="17"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="C15" s="13">
-        <v>0.82</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0.63</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0.76</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0.81</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16">
-      <c r="A16" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="13">
-        <v>0.82</v>
-      </c>
-      <c r="C16" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="D16" s="13">
-        <v>0.62</v>
-      </c>
-      <c r="E16" s="13">
-        <v>0.68</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0.91</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0.77</v>
-      </c>
-      <c r="I16" s="13">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16">
-      <c r="A17" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="13">
-        <v>0.91</v>
-      </c>
-      <c r="C17" s="13">
-        <v>0.92</v>
-      </c>
-      <c r="D17" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="E17" s="13">
-        <v>0.83</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0.91</v>
-      </c>
-      <c r="G17" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="H17" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="I17" s="13">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16">
-      <c r="A18" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="13">
-        <v>0.91</v>
-      </c>
-      <c r="C18" s="13">
-        <v>0.93</v>
-      </c>
-      <c r="D18" s="13">
-        <v>0.69</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0.88</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.99</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0.96</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0.83</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16">
-      <c r="A19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" ht="16">
-      <c r="A20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" ht="16">
-      <c r="A21" s="20"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="17"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="17"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="17"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="17"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="17"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="17"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="17"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="17"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="17"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="18"/>
+      <c r="A15" s="17"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="17"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="17"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="17"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="17"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1005,9 +962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C7A5C7-63F7-43B8-9F60-FA9EDE4B9E50}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1299,257 +1256,103 @@
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="13">
-        <v>0.87</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.93</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.96</v>
-      </c>
-      <c r="E11" s="13">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.96</v>
-      </c>
+      <c r="A11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="13">
-        <v>0.82</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0.92</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0.94</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0.84</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0.95</v>
-      </c>
+      <c r="A12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="13">
-        <v>0.87</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0.96</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0.84</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0.97</v>
-      </c>
+      <c r="A13" s="15"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0.84</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0.94</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0.94</v>
-      </c>
+      <c r="A14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="C15" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0.96</v>
-      </c>
+      <c r="A15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="C16" s="13">
-        <v>0.84</v>
-      </c>
-      <c r="D16" s="13">
-        <v>0.96</v>
-      </c>
-      <c r="E16" s="13">
-        <v>0.96</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0.92</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0.94</v>
-      </c>
+      <c r="A16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="C17" s="13">
-        <v>0.94</v>
-      </c>
-      <c r="D17" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="E17" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0.93</v>
-      </c>
-      <c r="G17" s="13">
-        <v>0.95</v>
-      </c>
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="C18" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D18" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0.98</v>
-      </c>
+      <c r="A18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="C19" s="13">
-        <v>0.92</v>
-      </c>
-      <c r="D19" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0.94</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0.97</v>
-      </c>
+      <c r="A19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="C20" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="D20" s="13">
-        <v>0.99</v>
-      </c>
-      <c r="E20" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="F20" s="13">
-        <v>0.91</v>
-      </c>
-      <c r="G20" s="13">
-        <v>0.96</v>
-      </c>
+      <c r="A20" s="15"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
